--- a/biology/Zoologie/Couleuvre_rayée/Couleuvre_rayée.xlsx
+++ b/biology/Zoologie/Couleuvre_rayée/Couleuvre_rayée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophis sirtalis
-La Couleuvre rayée ou Serpent-jarretière, Thamnophis sirtalis, est une espèce de serpents de la famille des Natricidae[1].
+La Couleuvre rayée ou Serpent-jarretière, Thamnophis sirtalis, est une espèce de serpents de la famille des Natricidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre fréquemment en Amérique du Nord[1]. On peut la rencontrer partout sauf dans les climats extrêmes, c'est-à-dire dans des régions très sèches ou très froides. Si elle se trouve dans une région plutôt froide, il lui arrive qu'elle hiberne. Elle va donc chercher un terrier, une cave[2] ...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre fréquemment en Amérique du Nord. On peut la rencontrer partout sauf dans les climats extrêmes, c'est-à-dire dans des régions très sèches ou très froides. Si elle se trouve dans une région plutôt froide, il lui arrive qu'elle hiberne. Elle va donc chercher un terrier, une cave ...
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est d'un brun sombre avec trois raies jaunes ou rouges; l'une sur le dos et les deux autres sur les côtés, hormis une exception où les rayures deviennent des taches. Sa longueur moyenne est comprise entre 50 et 125 cm. Son poids varie entre 140 et 180 g[2]. La couleuvre hiberne entre le mois de septembre et décembre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est d'un brun sombre avec trois raies jaunes ou rouges; l'une sur le dos et les deux autres sur les côtés, hormis une exception où les rayures deviennent des taches. Sa longueur moyenne est comprise entre 50 et 125 cm. Son poids varie entre 140 et 180 g. La couleuvre hiberne entre le mois de septembre et décembre.
 Plus grosse que le mâle, la femelle est facilement repérable aux yeux des humains ; les serpents, eux, ne l'identifient qu'à son odeur.
 Sa nourriture se compose de petits poissons d'eau douce (vivants) ou bouts de saumons frais, de vers de terre, et parfois de souriceaux.
-La couleuvre rayée possède des écailles carénées et une plaque anale non-divisée. Cette espèce est ovovivipare et donne naissance à un nombre de petits compris entre 10 et 70 par portée[2].
+La couleuvre rayée possède des écailles carénées et une plaque anale non-divisée. Cette espèce est ovovivipare et donne naissance à un nombre de petits compris entre 10 et 70 par portée.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Prédations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent est l'unique prédateur des tritons rugueux, qu'il est le seul à pouvoir consommer sans subir les effets des terribles toxines de la peau du triton, largement mortelles pour toute autre espèce (y compris pour l'Homme). Ce fait résulte d'un équilibre écologique qui s'est mis en place entre les deux espèces : les tritons les plus venimeux survivent davantage à la prédation des couleuvres, et les couleuvres les plus résistantes aux toxines sont favorisées dans leur accès à la nourriture. La couleuvre rayée se nourrit également de vers, de poissons et d'autres amphibiens[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent est l'unique prédateur des tritons rugueux, qu'il est le seul à pouvoir consommer sans subir les effets des terribles toxines de la peau du triton, largement mortelles pour toute autre espèce (y compris pour l'Homme). Ce fait résulte d'un équilibre écologique qui s'est mis en place entre les deux espèces : les tritons les plus venimeux survivent davantage à la prédation des couleuvres, et les couleuvres les plus résistantes aux toxines sont favorisées dans leur accès à la nourriture. La couleuvre rayée se nourrit également de vers, de poissons et d'autres amphibiens.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (6 septembre 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (6 septembre 2013) :
 Thamnophis sirtalis annectens Brown, 1950
 Thamnophis sirtalis concinnus (Hallowell, 1852)
 Thamnophis sirtalis dorsalis (Baird &amp; Girard, 1853)
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Couleuvre_ray%C3%A9e</t>
+          <t>Couleuvre_rayée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Allen, 1899 : Notes on the reptiles and amphibians of Intervale, New Hampshire. Proceedings of the Boston Society of Natural History, vol. 29, p. 63-75 (texte intégral).
 Baird &amp; Girard, 1853 : Catalogue of North American Reptiles in the Museum of the Smithsonian Institution. Part 1.-Serpents. Smithsonian Institution, Washington, p. 1-172 (texte intégral).
